--- a/format/sptmh.xlsx
+++ b/format/sptmh.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\amanbos\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CE01D-9BFF-4A74-8BD8-6AEEFAB449A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F571159C-559F-4E7A-B634-573543369424}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B0F7C11-D37A-4CB5-85D7-B236FAC864AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B0F7C11-D37A-4CB5-85D7-B236FAC864AC}"/>
   </bookViews>
   <sheets>
     <sheet name="SPTMH" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="deskripsi">SPTMH!$C$17</definedName>
     <definedName name="jenjang">SPTMH!$K$3</definedName>
@@ -36,7 +33,6 @@
     <definedName name="total_rka">SPTMH!$D$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>SURAT PERNYATAAN TELAH MENERIMA HIBAH (SPTMH)</t>
   </si>
@@ -141,6 +137,12 @@
   </si>
   <si>
     <t xml:space="preserve">NIP. </t>
+  </si>
+  <si>
+    <t>SD NEGERI BATUR 01</t>
+  </si>
+  <si>
+    <t>GETASAN</t>
   </si>
 </sst>
 </file>
@@ -359,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -435,6 +437,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -453,7 +458,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,57 +477,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PETUNJUK"/>
-      <sheetName val="REKAPITULASI"/>
-      <sheetName val="BELANJA"/>
-      <sheetName val="CEK"/>
-      <sheetName val="LAP REALISASI"/>
-      <sheetName val="SPTJ"/>
-      <sheetName val="SPTMH"/>
-      <sheetName val="K7 TW 3 PROV"/>
-      <sheetName val="K7 TW 3 KAB"/>
-      <sheetName val="BELANJA MODAL"/>
-      <sheetName val="Persediaan"/>
-      <sheetName val="KET. BELANJA"/>
-      <sheetName val="data NPSN"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>20320774</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>SD NEGERI BATUR 01</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>GETASAN</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,20 +783,20 @@
   <dimension ref="B1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="5.7265625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="14.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.21875" style="1"/>
+    <col min="2" max="2" width="5.77734375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="14.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -852,31 +806,31 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="6"/>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -887,20 +841,20 @@
         <v>2</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -913,22 +867,22 @@
       <c r="H7" s="8"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:11" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
@@ -937,13 +891,12 @@
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="10" t="str">
-        <f>[1]CEK!B3</f>
-        <v>SD NEGERI BATUR 01</v>
+      <c r="F11" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
@@ -952,13 +905,12 @@
       <c r="E12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="10" t="str">
-        <f>[1]CEK!F3</f>
-        <v>GETASAN</v>
+      <c r="F12" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
@@ -972,7 +924,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
@@ -986,7 +938,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
@@ -996,59 +948,58 @@
         <v>6</v>
       </c>
       <c r="F15" s="11">
-        <f>[1]CEK!B2</f>
         <v>20320774</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="12" t="s">
         <v>19</v>
       </c>
@@ -1058,10 +1009,10 @@
       <c r="G22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="14" t="s">
         <v>22</v>
@@ -1073,7 +1024,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="16" t="str">
         <f>IF(jenjang="SD","4.3.1.06.01","4.3.1.06.02")</f>
@@ -1098,7 +1049,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1108,68 +1059,68 @@
       <c r="H25" s="18"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="26" t="str">
+      <c r="C29" s="27" t="str">
         <f>F11</f>
         <v>SD NEGERI BATUR 01</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="G34" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="G35" s="20" t="s">
         <v>27</v>
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="G36" s="21" t="str">
         <f>nama_sekolah</f>
@@ -1177,45 +1128,45 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="G41" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -1226,7 +1177,7 @@
       <c r="I45" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="9">
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C3:H3"/>

--- a/format/sptmh.xlsx
+++ b/format/sptmh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\amanbos\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F571159C-559F-4E7A-B634-573543369424}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EFB708-3C98-4A31-A4EE-0ACF1FE00323}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B0F7C11-D37A-4CB5-85D7-B236FAC864AC}"/>
   </bookViews>
@@ -433,11 +433,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -458,8 +457,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +783,7 @@
   <dimension ref="B1:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="6"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="6"/>
@@ -891,7 +891,7 @@
       <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="6"/>
@@ -905,7 +905,7 @@
       <c r="E12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="26" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="6"/>
